--- a/biology/Médecine/Cavité_crânienne/Cavité_crânienne.xlsx
+++ b/biology/Médecine/Cavité_crânienne/Cavité_crânienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_cr%C3%A2nienne</t>
+          <t>Cavité_crânienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cavité crânienne (ou boîte crânienne ou crâne cérébral) est une cavité osseuse située dans la tête qui contient le cerveau (l'encéphale entourée des méninges crâniennes) et une partie de la moelle spinale. Elle fait partie du neurocrâne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_cr%C3%A2nienne</t>
+          <t>Cavité_crânienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La cavité crânienne est limitée en haut par la calvaria (ou voûte crânienne) et en bas par la base du crâne.
 Ces deux ensembles osseux délimitent une cavité d'une capacité de 1 200 à 1 700 cm3.
